--- a/PRODUCTOS/excel/baños_datos.xlsx
+++ b/PRODUCTOS/excel/baños_datos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44094B1F-8172-424E-A67A-956ED6120C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045C2500-2461-4A2D-A68A-707669447F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8940D16A-C522-4CC9-B8EA-02E30F7DBD03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{8940D16A-C522-4CC9-B8EA-02E30F7DBD03}"/>
   </bookViews>
   <sheets>
-    <sheet name="loza" sheetId="1" r:id="rId1"/>
-    <sheet name="vanitorys" sheetId="2" r:id="rId2"/>
-    <sheet name="lavatorios" sheetId="3" r:id="rId3"/>
-    <sheet name="bañeras" sheetId="4" r:id="rId4"/>
+    <sheet name="loza_0000" sheetId="1" r:id="rId1"/>
+    <sheet name="vanitorys_1000" sheetId="2" r:id="rId2"/>
+    <sheet name="lavatorios_2000" sheetId="3" r:id="rId3"/>
+    <sheet name="bañeras_3000" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="447">
   <si>
     <t>id</t>
   </si>
@@ -1454,6 +1454,78 @@
   </si>
   <si>
     <t>10 años por defectos de fabricación. Excluye daños ocasionados por roturas, uso inadecuado, instalaciones deficientes o el uso de limpiadores abrasivos.</t>
+  </si>
+  <si>
+    <t>Bañera</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>Atuel</t>
+  </si>
+  <si>
+    <t>Enlozada</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\baños\img\3000_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\baños\img\3001_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\baños\img\3002_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\baños\img\3000_2.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\baños\img\3001_2.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\baños\img\3002_2.jpg</t>
+  </si>
+  <si>
+    <t>- Atuel 14 Cód BA14 | Cód. SAP: ATU-BA-001-BL&lt;br&gt;
+- Atuel 15 Cód BA15 | Cód. SAP: ATU-BA-002-BL&lt;br&gt;
+- Atuel 16 Cód BA16 | Cód. SAP: ATU-BA-003-BL&lt;br&gt;
+- Atuel 17 Cód BA17 | Cód. SAP: ATU-BA-004-BL&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- Cód: BL12S-B | Cód. SAP: BCH-BA-031-BL&lt;br&gt;
+- Cód: BL14S-B | Cód. SAP: BCH-BA-033-BL&lt;br&gt;
+- Cód: BL15S-B | Cód. SAP: BCH-BA-034-BL&lt;br&gt;
+- Cód: BL16S-B | Cód. SAP: BCH-BA-035-BL&lt;br&gt;
+- Cód: BL17S-B | Cód. SAP: BCH-BA-036-BL&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- Bañera Serena 120 cm.&lt;br&gt;
+Cód BF120     |     Cód SAP: SER-BA-120-BL&lt;br&gt;
+- Bañera Serena 130 cm.&lt;br&gt;
+Cód BF130     |     Cód SAP: SER-BA-130-BL&lt;br&gt;
+- Bañera Serena 140 cm.&lt;br&gt;
+Cód BF140     |     Cód SAP: SER-BA-140-BL&lt;br&gt;
+- Bañera Serena 150 cm.&lt;br&gt;
+Cód BF150     |     Cód SAP: SER-BA-150-BL&lt;br&gt;
+- Bañera Serena 160 cm.&lt;br&gt;
+Cód BF160     |     Cód SAP: SER-BA-160-BL&lt;br&gt;
+- Bañera Serena 170 cm.&lt;br&gt;
+Cód BF170     |     Cód SAP: SER-BA-170-BL&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Acrílico coestrudado</t>
+  </si>
+  <si>
+    <t>Acrílico</t>
+  </si>
+  <si>
+    <t>Acero Porcelanizado</t>
+  </si>
+  <si>
+    <t>5 años por defectos de fabricación. Excluye daños ocasionados por el uso inadecuado, instalaciones deficientes o el uso de limpiadores abrasivos.</t>
+  </si>
+  <si>
+    <t>1 año por defectos de fabricación. Excluye daños ocasionados por el uso inadecuado, instalaciones deficientes o el uso de limpiadores abrasivos.</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1802,6 +1874,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2120,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECA5B1E-1677-4941-B7B9-356EF16EB93F}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -4524,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C6966B-4A62-46F4-9CF0-77FAB8006033}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5032,15 +5113,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD6953A-C990-42D9-BA6B-2EB20DF2BBDE}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="11.42578125" style="33"/>
+    <col min="6" max="6" width="34.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" style="34" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="33"/>
+    <col min="11" max="11" width="17.42578125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="33"/>
+    <col min="13" max="13" width="21.42578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="33" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="33"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5062,44 +5157,160 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
+      <c r="M1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>3001</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>3002</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>